--- a/Rahmani/FarzanRahmani-Week2.xlsx
+++ b/Rahmani/FarzanRahmani-Week2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Rahmani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A04328-C244-46A5-9121-7ABB1EB91C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26725FDE-EDDA-4F45-B02F-A28B7B753E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="2592" windowWidth="17280" windowHeight="8964" xr2:uid="{B132E77F-25F4-4952-A9D3-0AE13FE37FD9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B132E77F-25F4-4952-A9D3-0AE13FE37FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>آپلود گزارش کار روی گیت هاب</t>
   </si>
   <si>
-    <t>گزارش کار از تاریخ 1400/6/14 تا تاریخ 1400/6/19</t>
-  </si>
-  <si>
     <t>نام:فرزان رحمانی</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>پروژه بک اند فردی</t>
+  </si>
+  <si>
+    <t>گزارش کار از تاریخ 1400/6/20 تا تاریخ 1400/6/26</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="2" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -689,13 +689,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3">
         <v>9.0277777777777776E-2</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3">
         <v>4.1666666666666664E-2</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3">
         <v>0.11458333333333333</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3">
         <v>4.1666666666666664E-2</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3">
         <v>0.16666666666666666</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
